--- a/medicine/Soins infirmiers et profession infirmière/1839_en_santé_et_médecine/1839_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1839_en_santé_et_médecine/1839_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1839_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1839_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1839 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1839_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1839_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1839_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1839_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1839_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1839_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,11 +579,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5 mai : Émile Javal  (mort en 1907), ophtalmologiste et homme politique français[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 mai : Émile Javal  (mort en 1907), ophtalmologiste et homme politique français.
 23 juillet : Henri Brocard (mort en 1900), ingénieur et industriel, fabricant de produits d'hygiène et de parfumerie.
-18 novembre : Georges Dieulafoy (mort en 1911), médecin français, connu pour ses travaux en pathologie digestive et en particulier sur la sémiologie de l’appendicite[2].</t>
+18 novembre : Georges Dieulafoy (mort en 1911), médecin français, connu pour ses travaux en pathologie digestive et en particulier sur la sémiologie de l’appendicite.</t>
         </is>
       </c>
     </row>
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1839_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1839_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,9 +613,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>30 décembre : Alexandre-Urbain Yvan (né en 1765), chirurgien français, au service personnel de Napoléon Bonaparte[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>30 décembre : Alexandre-Urbain Yvan (né en 1765), chirurgien français, au service personnel de Napoléon Bonaparte.</t>
         </is>
       </c>
     </row>
